--- a/tournaments/2023-womens-world-cup.xlsx
+++ b/tournaments/2023-womens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DA30AD-AD94-4F6F-8159-63E7CEE0446D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA82F4-6F73-466D-9C4E-286035A53B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1273" yWindow="1560" windowWidth="19200" windowHeight="10020" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="6400" yWindow="947" windowWidth="19200" windowHeight="10073" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -1467,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>45127.708333333336</v>
+        <v>45127.291666666672</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>45127.833333333336</v>
+        <v>45127.416666666672</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>45128.625</v>
+        <v>45128.208333333336</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>45128.520833333336</v>
+        <v>45128.104166666672</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1610,7 +1610,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1">
-        <v>45128.729166666664</v>
+        <v>45128.3125</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1631,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>45129.708333333336</v>
+        <v>45129.291666666672</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1652,7 +1652,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>45129.8125</v>
+        <v>45129.395833333336</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1673,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="1">
-        <v>45129.916666666664</v>
+        <v>45129.5</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1694,7 +1694,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="1">
-        <v>45129.458333333336</v>
+        <v>45129.041666666672</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="1">
-        <v>45130.729166666664</v>
+        <v>45130.3125</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1736,7 +1736,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1">
-        <v>45130.833333333336</v>
+        <v>45130.416666666672</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1757,7 +1757,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="1">
-        <v>45130.625</v>
+        <v>45130.208333333336</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1778,7 +1778,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="1">
-        <v>45131.875</v>
+        <v>45131.458333333336</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -1799,7 +1799,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="1">
-        <v>45131.666666666664</v>
+        <v>45131.25</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="1">
-        <v>45131.770833333336</v>
+        <v>45131.354166666672</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1841,7 +1841,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="1">
-        <v>45132.5</v>
+        <v>45132.083333333336</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>45132.645833333336</v>
+        <v>45132.229166666672</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>45132.75</v>
+        <v>45132.333333333336</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>45133.916666666664</v>
+        <v>45133.5</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -1925,7 +1925,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="1">
-        <v>45133.729166666664</v>
+        <v>45133.3125</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1946,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="1">
-        <v>45133.625</v>
+        <v>45133.208333333336</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1967,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>45134.833333333336</v>
+        <v>45134.416666666672</v>
       </c>
       <c r="E23">
         <v>7</v>
@@ -1988,7 +1988,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>45134.458333333336</v>
+        <v>45134.041666666672</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -2009,7 +2009,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>45134.729166666664</v>
+        <v>45134.3125</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="1">
-        <v>45135.770833333336</v>
+        <v>45135.354166666672</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2051,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="1">
-        <v>45135.875</v>
+        <v>45135.458333333336</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -2072,7 +2072,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="1">
-        <v>45135.416666666664</v>
+        <v>45135</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2093,7 +2093,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="1">
-        <v>45136.833333333336</v>
+        <v>45136.416666666672</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -2114,7 +2114,7 @@
         <v>17</v>
       </c>
       <c r="D30" s="1">
-        <v>45136.9375</v>
+        <v>45136.520833333336</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -2135,7 +2135,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="1">
-        <v>45136.729166666664</v>
+        <v>45136.3125</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -2156,7 +2156,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <v>45137.8125</v>
+        <v>45137.395833333336</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2177,7 +2177,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="1">
-        <v>45137.604166666664</v>
+        <v>45137.1875</v>
       </c>
       <c r="E33">
         <v>9</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>45137.708333333336</v>
+        <v>45137.291666666672</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2219,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="1">
-        <v>45137.708333333336</v>
+        <v>45137.291666666672</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2240,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>45138.833333333336</v>
+        <v>45138.416666666672</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -2261,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="1">
-        <v>45138.833333333336</v>
+        <v>45138.416666666672</v>
       </c>
       <c r="E37">
         <v>7</v>
@@ -2282,7 +2282,7 @@
         <v>14</v>
       </c>
       <c r="D38" s="1">
-        <v>45138.708333333336</v>
+        <v>45138.291666666672</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -2303,7 +2303,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="1">
-        <v>45138.708333333336</v>
+        <v>45138.291666666672</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -2324,7 +2324,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="1">
-        <v>45139.875</v>
+        <v>45139.458333333336</v>
       </c>
       <c r="E40">
         <v>9</v>
@@ -2345,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>45139.875</v>
+        <v>45139.458333333336</v>
       </c>
       <c r="E41">
         <v>8</v>
@@ -2366,7 +2366,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="1">
-        <v>45139.708333333336</v>
+        <v>45139.291666666672</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="1">
-        <v>45139.708333333336</v>
+        <v>45139.291666666672</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -2408,7 +2408,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="1">
-        <v>45140.833333333336</v>
+        <v>45140.416666666672</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -2429,7 +2429,7 @@
         <v>22</v>
       </c>
       <c r="D45" s="1">
-        <v>45140.833333333336</v>
+        <v>45140.416666666672</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -2450,7 +2450,7 @@
         <v>30</v>
       </c>
       <c r="D46" s="1">
-        <v>45140.708333333336</v>
+        <v>45140.291666666672</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -2471,7 +2471,7 @@
         <v>24</v>
       </c>
       <c r="D47" s="1">
-        <v>45140.708333333336</v>
+        <v>45140.291666666672</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -2492,7 +2492,7 @@
         <v>28</v>
       </c>
       <c r="D48" s="1">
-        <v>45141.833333333336</v>
+        <v>45141.416666666672</v>
       </c>
       <c r="E48">
         <v>7</v>
@@ -2513,7 +2513,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="1">
-        <v>45141.833333333336</v>
+        <v>45141.416666666672</v>
       </c>
       <c r="E49">
         <v>8</v>
@@ -2534,7 +2534,7 @@
         <v>39</v>
       </c>
       <c r="D50" s="1">
-        <v>45143.625</v>
+        <v>45143.208333333336</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         <v>37</v>
       </c>
       <c r="D51" s="1">
-        <v>45143.75</v>
+        <v>45143.333333333336</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -2576,7 +2576,7 @@
         <v>47</v>
       </c>
       <c r="D52" s="1">
-        <v>45144.5</v>
+        <v>45144.083333333336</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2597,7 +2597,7 @@
         <v>45</v>
       </c>
       <c r="D53" s="1">
-        <v>45144.791666666664</v>
+        <v>45144.375</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -2618,7 +2618,7 @@
         <v>35</v>
       </c>
       <c r="D54" s="1">
-        <v>45145.854166666664</v>
+        <v>45145.4375</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -2639,7 +2639,7 @@
         <v>33</v>
       </c>
       <c r="D55" s="1">
-        <v>45145.729166666664</v>
+        <v>45145.3125</v>
       </c>
       <c r="E55">
         <v>7</v>
@@ -2660,7 +2660,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="1">
-        <v>45146.875</v>
+        <v>45146.458333333336</v>
       </c>
       <c r="E56">
         <v>9</v>
@@ -2681,7 +2681,7 @@
         <v>41</v>
       </c>
       <c r="D57" s="1">
-        <v>45146.75</v>
+        <v>45146.333333333336</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -2702,7 +2702,7 @@
         <v>52</v>
       </c>
       <c r="D58" s="1">
-        <v>45149.458333333336</v>
+        <v>45149.041666666672</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -2723,7 +2723,7 @@
         <v>53</v>
       </c>
       <c r="D59" s="1">
-        <v>45149.729166666664</v>
+        <v>45149.3125</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2744,7 +2744,7 @@
         <v>54</v>
       </c>
       <c r="D60" s="1">
-        <v>45150.708333333336</v>
+        <v>45150.291666666672</v>
       </c>
       <c r="E60">
         <v>7</v>
@@ -2765,7 +2765,7 @@
         <v>55</v>
       </c>
       <c r="D61" s="1">
-        <v>45150.854166666664</v>
+        <v>45150.4375</v>
       </c>
       <c r="E61">
         <v>10</v>
@@ -2786,7 +2786,7 @@
         <v>57</v>
       </c>
       <c r="D62" s="1">
-        <v>45153.75</v>
+        <v>45153.333333333336</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2807,7 +2807,7 @@
         <v>59</v>
       </c>
       <c r="D63" s="1">
-        <v>45154.833333333336</v>
+        <v>45154.416666666672</v>
       </c>
       <c r="E63">
         <v>10</v>
@@ -2828,7 +2828,7 @@
         <v>85</v>
       </c>
       <c r="D64" s="1">
-        <v>45157.75</v>
+        <v>45157.333333333336</v>
       </c>
       <c r="E64">
         <v>7</v>
@@ -2849,7 +2849,7 @@
         <v>61</v>
       </c>
       <c r="D65" s="1">
-        <v>45158.833333333336</v>
+        <v>45158.416666666672</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -2860,6 +2860,7 @@
       <c r="K65" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/tournaments/2023-womens-world-cup.xlsx
+++ b/tournaments/2023-womens-world-cup.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA82F4-6F73-466D-9C4E-286035A53B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A08F9B-86BD-45D3-8BB8-4F5EE74C59BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="947" windowWidth="19200" windowHeight="10073" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="13800" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
     <sheet name="Matches" sheetId="1" r:id="rId2"/>
     <sheet name="Seeds" sheetId="3" r:id="rId3"/>
+    <sheet name="Colors" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="218">
   <si>
     <t>A1</t>
   </si>
@@ -599,6 +600,99 @@
   </si>
   <si>
     <t>COL</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>pale cyan</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>pale yellow</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>#f79d8f</t>
+  </si>
+  <si>
+    <t>pale red</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>pale green</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>pale teal</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>#fab077</t>
+  </si>
+  <si>
+    <t>pale orange</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>pale pink</t>
+  </si>
+  <si>
+    <t>pale rose</t>
+  </si>
+  <si>
+    <t>#97cd73</t>
+  </si>
+  <si>
+    <t>#92d6df</t>
+  </si>
+  <si>
+    <t>#e2694f</t>
+  </si>
+  <si>
+    <t>#efc9d8</t>
+  </si>
+  <si>
+    <t>#f173a7</t>
+  </si>
+  <si>
+    <t>#418e9f</t>
+  </si>
+  <si>
+    <t>#faae53</t>
+  </si>
+  <si>
+    <t>#f8f391</t>
+  </si>
+  <si>
+    <t>#b0df90</t>
+  </si>
+  <si>
+    <t>#60b4c7</t>
+  </si>
+  <si>
+    <t>#eb9784</t>
+  </si>
+  <si>
+    <t>#eb84af</t>
   </si>
 </sst>
 </file>
@@ -723,6 +817,25 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C0AEBB99-51D0-46B6-ACD7-C4F2DC461A4C}" name="seed"/>
     <tableColumn id="3" xr3:uid="{DD8C8688-8EED-4B48-9C61-D766CD3EFBBB}" name="team"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B4799E7-1333-4422-AE4E-34BE28422317}" name="groups" displayName="groups" ref="A1:J9" totalsRowShown="0">
+  <autoFilter ref="A1:J9" xr:uid="{4B86982E-77B7-4963-838F-4D594C24841B}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{74FEACBC-8E4D-4EFA-8F69-50200C488F4A}" name="key"/>
+    <tableColumn id="2" xr3:uid="{A581F199-5AED-47CD-9F67-78BB18ACA6D7}" name="en"/>
+    <tableColumn id="3" xr3:uid="{842A5943-6DCD-4A02-90FE-ED0B95974031}" name="es"/>
+    <tableColumn id="4" xr3:uid="{EB776D2E-BA2B-4B63-836C-1F9E3AC3F6B1}" name="it"/>
+    <tableColumn id="5" xr3:uid="{F1626DC6-0BA0-4AD1-8D24-7CD19F5D143B}" name="fr"/>
+    <tableColumn id="6" xr3:uid="{9355CB98-CF08-4638-AE14-56346EAA7111}" name="de"/>
+    <tableColumn id="7" xr3:uid="{62715CD3-F132-44D5-89DB-3FEA3938DCAE}" name="nl"/>
+    <tableColumn id="8" xr3:uid="{373F278C-AA56-4847-9936-7CDB1D93754B}" name="ja"/>
+    <tableColumn id="9" xr3:uid="{6DCFFACA-53BA-4D49-9A7E-5B9205135116}" name="fa"/>
+    <tableColumn id="10" xr3:uid="{DB871EDA-A6EF-43E8-877D-5049B077A768}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1467,7 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3150,4 +3263,167 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2E615E-FE08-4442-901C-E33FB48A622A}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="10" max="10" width="12.1171875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tournaments/2023-womens-world-cup.xlsx
+++ b/tournaments/2023-womens-world-cup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A08F9B-86BD-45D3-8BB8-4F5EE74C59BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4BAC6F-A7F1-44FE-B750-9CB79639A46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="13800" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="4320" yWindow="3727" windowWidth="19200" windowHeight="10073" activeTab="2" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -584,9 +584,6 @@
     <t>VIE</t>
   </si>
   <si>
-    <t>JMA</t>
-  </si>
-  <si>
     <t>PAN</t>
   </si>
   <si>
@@ -693,6 +690,9 @@
   </si>
   <si>
     <t>#eb84af</t>
+  </si>
+  <si>
+    <t>JAM</t>
   </si>
 </sst>
 </file>
@@ -842,9 +842,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -882,7 +882,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -988,7 +988,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1130,7 +1130,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2986,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827E4A0-E10B-4512-807E-A38B484A1AB9}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3173,7 +3173,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
@@ -3189,7 +3189,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
@@ -3197,7 +3197,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
@@ -3205,7 +3205,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
@@ -3213,7 +3213,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
@@ -3245,7 +3245,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
@@ -3269,7 +3269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2E615E-FE08-4442-901C-E33FB48A622A}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3307,116 +3307,116 @@
         <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" t="s">
         <v>192</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" t="s">
         <v>193</v>
-      </c>
-      <c r="C4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" t="s">
         <v>198</v>
-      </c>
-      <c r="B7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" t="s">
-        <v>211</v>
-      </c>
-      <c r="J7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
         <v>200</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" t="s">
         <v>201</v>
-      </c>
-      <c r="C8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/tournaments/2023-womens-world-cup.xlsx
+++ b/tournaments/2023-womens-world-cup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4BAC6F-A7F1-44FE-B750-9CB79639A46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9805B35A-D3F4-6E41-AFA9-C4306E5AE768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3727" windowWidth="19200" windowHeight="10073" activeTab="2" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="4320" yWindow="3720" windowWidth="19200" windowHeight="10080" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="220">
   <si>
     <t>A1</t>
   </si>
@@ -693,6 +693,12 @@
   </si>
   <si>
     <t>JAM</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>Australia/Sydney</t>
   </si>
 </sst>
 </file>
@@ -774,8 +780,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I14" totalsRowShown="0">
-  <autoFilter ref="A1:I14" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I15" totalsRowShown="0">
+  <autoFilter ref="A1:I15" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -1138,29 +1144,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.05859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.3515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.05859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.46875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1276,293 +1282,301 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>93</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>136</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>136</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>136</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>136</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>136</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>144</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>94</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>146</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>147</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>146</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>148</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>146</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>146</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>149</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>137</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>137</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>137</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>137</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>137</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>137</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>151</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>96</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>138</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>138</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>138</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>138</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>138</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>138</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>153</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>139</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>139</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>139</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>139</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>139</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>139</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>155</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>140</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>140</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>140</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>140</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>140</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>140</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>157</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>99</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>141</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>141</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>141</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>141</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>141</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>141</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>159</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>100</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>142</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>142</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>142</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>142</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>142</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>142</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>161</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>134</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>143</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>143</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>143</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>163</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>143</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>143</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>164</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>135</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>166</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>167</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>166</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>166</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>168</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>169</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>170</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1584,16 +1598,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.46875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.17578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.76171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -1628,7 +1642,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1649,7 +1663,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1670,7 +1684,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1691,7 +1705,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1712,7 +1726,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1733,7 +1747,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1754,7 +1768,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1775,7 +1789,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1796,7 +1810,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1817,7 +1831,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1838,7 +1852,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1859,7 +1873,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1880,7 +1894,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1901,7 +1915,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1922,7 +1936,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1943,7 +1957,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1964,7 +1978,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1985,7 +1999,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2006,7 +2020,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2027,7 +2041,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2048,7 +2062,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2069,7 +2083,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2090,7 +2104,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2111,7 +2125,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2132,7 +2146,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2153,7 +2167,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2174,7 +2188,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2195,7 +2209,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2216,7 +2230,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2237,7 +2251,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2258,7 +2272,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2279,7 +2293,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2300,7 +2314,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2321,7 +2335,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2342,7 +2356,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2363,7 +2377,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2384,7 +2398,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2405,7 +2419,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2426,7 +2440,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2447,7 +2461,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2468,7 +2482,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2489,7 +2503,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2510,7 +2524,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2531,7 +2545,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2552,7 +2566,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2573,7 +2587,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2594,7 +2608,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2615,7 +2629,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2636,7 +2650,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2657,7 +2671,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2678,7 +2692,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2699,7 +2713,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2720,7 +2734,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2741,7 +2755,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2762,7 +2776,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2783,7 +2797,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2804,7 +2818,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2825,7 +2839,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2846,7 +2860,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2867,7 +2881,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2888,7 +2902,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2909,7 +2923,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2930,7 +2944,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2951,7 +2965,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2986,13 +3000,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827E4A0-E10B-4512-807E-A38B484A1AB9}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -3000,7 +3014,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +3022,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3016,7 +3030,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3024,7 +3038,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3032,7 +3046,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3040,7 +3054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3048,7 +3062,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3056,7 +3070,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3064,7 +3078,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3072,7 +3086,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3080,7 +3094,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3088,7 +3102,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3096,7 +3110,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3104,7 +3118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3126,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3120,7 +3134,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3128,7 +3142,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3136,7 +3150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3144,7 +3158,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3152,7 +3166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3160,7 +3174,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3168,7 +3182,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3176,7 +3190,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3184,7 +3198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3192,7 +3206,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3200,7 +3214,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3208,7 +3222,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3216,7 +3230,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3224,7 +3238,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3232,7 +3246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3240,7 +3254,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3248,7 +3262,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3273,12 +3287,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="12.1171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -3310,7 +3324,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>187</v>
       </c>
@@ -3324,7 +3338,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -3335,7 +3349,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -3352,7 +3366,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -3363,7 +3377,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -3377,7 +3391,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -3391,7 +3405,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -3408,7 +3422,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>202</v>
       </c>
